--- a/ExcelFiles/Summer Availability/Summer2015AhmedAhmed.xlsx
+++ b/ExcelFiles/Summer Availability/Summer2015AhmedAhmed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josh\Desktop\summerAvail\Archive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josh\Dropbox\Projects\Scheduling Program\ExcelFiles\Summer Availability\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,19 +656,6 @@
     <xf numFmtId="164" fontId="1" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -702,6 +689,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1114,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1135,100 +1135,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -1239,13 +1239,13 @@
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
@@ -1256,13 +1256,13 @@
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="50"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
@@ -1289,16 +1289,16 @@
       <c r="O12" s="9"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
       <c r="I13" s="9"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -1308,13 +1308,13 @@
       <c r="O13" s="9"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
       <c r="I14" s="9"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -1324,12 +1324,12 @@
       <c r="O14" s="9"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="32"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>
@@ -1340,15 +1340,15 @@
       <c r="O15" s="9"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
       <c r="H16" s="5"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -1359,19 +1359,19 @@
       <c r="O16" s="10"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36" t="s">
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
@@ -1913,19 +1913,25 @@
       <c r="H57" s="26"/>
     </row>
     <row r="58" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
+      <c r="A58" s="36"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
+      <c r="A59" s="37"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
+      <c r="A60" s="37"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
+      <c r="A61" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A8:H8"/>
@@ -1936,12 +1942,6 @@
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
     <mergeCell ref="A16:G16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -1966,121 +1966,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
       <c r="I8" s="2"/>
       <c r="J8" s="52"/>
       <c r="K8" s="52"/>
@@ -2099,13 +2099,13 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
@@ -2114,13 +2114,13 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="50"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
@@ -2142,28 +2142,28 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -2172,12 +2172,12 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="32"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2187,34 +2187,34 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
       <c r="H16" s="5"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36" t="s">
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
@@ -2797,7 +2797,7 @@
       <c r="H57" s="28"/>
     </row>
     <row r="58" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
+      <c r="A58" s="36"/>
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
       <c r="D58" s="30"/>
@@ -2807,7 +2807,7 @@
       <c r="H58" s="30"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
+      <c r="A59" s="37"/>
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
@@ -2817,7 +2817,7 @@
       <c r="H59" s="30"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
+      <c r="A60" s="37"/>
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
@@ -2827,7 +2827,7 @@
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
+      <c r="A61" s="37"/>
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
@@ -2838,6 +2838,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A3:H3"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A16:G16"/>
@@ -2848,14 +2856,6 @@
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
